--- a/table.xlsx
+++ b/table.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,47 +692,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Clemencia Yenny</t>
+          <t>Miguel Franklin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gómez Sánchez</t>
+          <t>González Bedoya</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12117508</v>
+        <v>222423604</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>PaP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3017471575</t>
+          <t>3136670560</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>clemen_go5104@outlook.com</t>
+          <t>migugo136@outlook.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A-</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>17055</v>
+        <v>21799</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -741,31 +741,31 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Dg. 172 # 69-92</t>
+          <t>Avenida carrera 188 # 61-37</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Norte de Santander</t>
+          <t xml:space="preserve"> Magdalena</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>San Calixto</t>
+          <t>Concordia</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>545948</t>
+          <t>479989</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
@@ -774,40 +774,40 @@
         <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Posgrado</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Miembro de las fuerzas armadas</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>mas</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Union Libre</t>
+          <t>Viud@</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Familiar</t>
+          <t>Propia</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -832,36 +832,36 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Abandono</t>
+          <t>Construccion Paralizada</t>
         </is>
       </c>
       <c r="AH2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>otro</t>
         </is>
       </c>
       <c r="AK2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>SISBEN</t>
+          <t>Comfenalco</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Musulman</t>
+          <t>Maradoniano</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Afrocolombiano</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="AP2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>Psiquicas</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AR2" t="b">
@@ -888,10 +888,8 @@
       <c r="AT2" t="n">
         <v>0</v>
       </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="AU2" t="b">
+        <v>1</v>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
@@ -903,23 +901,23 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Familia muy grande</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Adriana Laura</t>
+          <t>Carolina Ángela</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ramos Torres</t>
+          <t>Pérez Daza</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>815928250</v>
+        <v>743595378</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -933,24 +931,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3129022837</t>
+          <t>3231707246</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>adrian.ram@yahoo.com</t>
+          <t>caroliper32@yahoo.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AB-</t>
+          <t>O+</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>32219</v>
+        <v>17359</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -959,31 +957,31 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Carrera 66 # 3F-5 Este</t>
+          <t>Av. calle 6ª # 4T-18</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arauca</t>
+          <t xml:space="preserve"> Chocó</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Tame</t>
+          <t>Istmina</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>810749</t>
+          <t>275135</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -992,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Pregrado</t>
+          <t>Bachiller</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Ingeniero medioambiental</t>
+          <t>Profesor de música</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -1021,26 +1019,26 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Casad@</t>
+          <t>Solter@</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>carro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Familiar</t>
+          <t>Propia</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1057,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="AI3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -1074,37 +1072,37 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Satanista</t>
+          <t>Maradoniano</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>Palenquero</t>
+          <t>Afrocolombiano</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Empleado</t>
+          <t>Pensionado</t>
         </is>
       </c>
       <c r="AP3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>Sensorial</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AR3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
@@ -1113,31 +1111,31 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Detergentes Ropa</t>
         </is>
       </c>
       <c r="AW3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Perdidad de cultivo</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elkin Camilo</t>
+          <t>Mario Iván</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andrade Vélez</t>
+          <t>Arévalo Bejarano</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>497186946</v>
+        <v>515134807</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1151,24 +1149,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3025901623</t>
+          <t>3502323314</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>elkina5789@gmail.com</t>
+          <t>mario.a@hotmail.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>AB+</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>70</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>19466</v>
+        <v>19534</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1177,7 +1175,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Carrera 19 # 49-37 Este</t>
+          <t>Calle 145 Este # 4-26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1187,39 +1185,39 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Tota</t>
+          <t>Floresta</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>158946</t>
+          <t>152982</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T4" t="b">
         <v>1</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Tecnico</t>
+          <t>Pregrado</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Especialista en políticas y servicios de personal</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1229,75 +1227,75 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Casad@</t>
+          <t>Viud@</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Arriendo</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Apartamento</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>En Ruina</t>
+        </is>
+      </c>
+      <c r="AH4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>otro</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Familiar</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Contruccion Activa</t>
-        </is>
-      </c>
-      <c r="AH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AK4" t="b">
         <v>1</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>Salud Total</t>
+          <t>EPS Sura</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Testigo de Jehova</t>
+          <t>Catolica</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>Mulato</t>
+          <t>Indigena</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1310,7 +1308,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>Fisicas</t>
+          <t>Psiquicas</t>
         </is>
       </c>
       <c r="AR4" t="b">
@@ -1329,50 +1327,50 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Moho</t>
+          <t>Fragancias</t>
         </is>
       </c>
       <c r="AW4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Carencia de trabajo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ligia Gloria</t>
+          <t>Franco Mauricio</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daza Osorio</t>
+          <t>Acevedo Osorio</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>918711724</v>
+        <v>555132890</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PaP</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3102304422</t>
+          <t>3127912113</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>li-daza@outlook.com</t>
+          <t>fra-aceve@hotmail.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1381,144 +1379,144 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>16470</v>
+        <v>38170</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Av. carrera 69 # 5-36 Este</t>
+          <t>Cr. 7E # 70-1 Sur</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meta</t>
+          <t xml:space="preserve"> Vichada</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>San Martín</t>
+          <t>La Primavera</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>506889</t>
+          <t>995484</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="R5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" t="b">
         <v>1</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Bachiller</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Oficial de préstamos y créditos</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Divorciad@</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>moto</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Propia</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Apartamento</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Contruida</t>
+        </is>
+      </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Separad@</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>otro</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Campamento</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>Contruccion Activa</t>
-        </is>
-      </c>
-      <c r="AH5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AK5" t="b">
         <v>1</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>Salud Total</t>
+          <t>Salud Vida</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Maradoniano</t>
+          <t>Musulman</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Afroamericano</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Pensionado</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="AP5" t="b">
@@ -1540,38 +1538,36 @@
       <c r="AT5" t="n">
         <v>0</v>
       </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="AU5" t="b">
+        <v>1</v>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Moho</t>
+          <t>Fragancias</t>
         </is>
       </c>
       <c r="AW5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ana Mónica</t>
+          <t>Sandra Jackeline</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Martínez Beltrán</t>
+          <t>Moreno Estrada</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>329474498</v>
+        <v>409276444</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1585,53 +1581,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3222128403</t>
+          <t>3339167903</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>anmartine1328@outlook.com</t>
+          <t>sandra_moren5094@yahoo.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AB+</t>
+          <t>O+</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>17620</v>
+        <v>37919</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Transversal 47 # 26-23</t>
+          <t>Cl. 4ª # 50I-2 Este</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Antioquia</t>
+          <t xml:space="preserve"> Cundinamarca</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>Mosquera</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>058390</t>
+          <t>253764</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1648,103 +1644,103 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Bachiller</t>
+          <t>Tecnico</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Operario en cemento armado y enfoscador</t>
+          <t>Director de servicios de cuidados infantiles</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Viud@</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Familiar</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>En Ruina</t>
+        </is>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Casad@</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Familiar</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>Construccion Paralizada</t>
-        </is>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AK6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>SISBEN</t>
+          <t>Comfenalco</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>Satanista</t>
+          <t>Musulman</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>Negro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Pensionado</t>
+          <t>Desempleado</t>
         </is>
       </c>
       <c r="AP6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sensorial</t>
         </is>
       </c>
       <c r="AR6" t="b">
@@ -1752,11 +1748,11 @@
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>Lagarto</t>
         </is>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
@@ -1765,1101 +1761,15 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>Cosmeticos</t>
+          <t>Alimentos</t>
         </is>
       </c>
       <c r="AW6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Paula María</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Flórez Villamil</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>440418008</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3039224306</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>paflor3@yahoo.com</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AB-</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>23324</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Tr. 2ª # 9-29</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cauca</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Silvia</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>197973</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>52</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Bachiller</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Cocinero</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Particular</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Solter@</t>
-        </is>
-      </c>
-      <c r="AA7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>moto</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Familiar</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Contruida</t>
-        </is>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AK7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Famisanar</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Cristiana</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>Indigena</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Pensionado</t>
-        </is>
-      </c>
-      <c r="AP7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Sensorial</t>
-        </is>
-      </c>
-      <c r="AR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>Detergentes Ropa</t>
-        </is>
-      </c>
-      <c r="AW7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
           <t>Carencia Capital</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lorena Eliana</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>López Castro</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>985885686</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3197318810</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>lorlopez@gmail.com</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AB-</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>63</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>22256</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Avenida calle 3ª # 9-9 Sur</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cundinamarca</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Lenguazaque</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>258552</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>54</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Tecnico</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Maestro preescolar</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>mas</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Separad@</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Arriendo</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="AH8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>SISBEN</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Musulman</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>Afroamericano</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Pensionado</t>
-        </is>
-      </c>
-      <c r="AP8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>Sensorial</t>
-        </is>
-      </c>
-      <c r="AR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>Fragancias</t>
-        </is>
-      </c>
-      <c r="AW8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>Perdidad de cultivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Esperanza Luz</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Molina Rodríguez</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>529350167</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3196154300</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>esperan-m483@outlook.com</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>37579</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Calle 180 # 5-85 Sur</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> La Guajira</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Urumita</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>441802</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>86</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Bachiller</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Tapicero</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Divorciad@</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Inquilinato</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>Contruida</t>
-        </is>
-      </c>
-      <c r="AH9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>SISBEN</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>Mulato</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Desempleado</t>
-        </is>
-      </c>
-      <c r="AP9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>Psiquicas</t>
-        </is>
-      </c>
-      <c r="AR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>Fragancias</t>
-        </is>
-      </c>
-      <c r="AW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cristian Daniel</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Guevara Arroyo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1139273126</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PaP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3154852027</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>cristigu7069@outlook.com</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>O-</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>34491</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Calle 3ª # 3-4</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cauca</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Páez</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>196873</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>61</v>
-      </c>
-      <c r="R10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Casad@</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>Propia</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Famisanar</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Musulman</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>Mulato</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Empleado</t>
-        </is>
-      </c>
-      <c r="AP10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>Psiquicas</t>
-        </is>
-      </c>
-      <c r="AR10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>Anfibio</t>
-        </is>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>Cosmeticos</t>
-        </is>
-      </c>
-      <c r="AW10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>Familia muy grande</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Edison José</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Murcia Monroy</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>513894038</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3031688326</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>e.murci41@outlook.com</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AB-</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>78</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>16727</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Carrera 12 # 94-39</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cauca</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Rosas</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>192133</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>86</v>
-      </c>
-      <c r="R11" t="b">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>mas</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Divorciad@</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>Propia</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>Apartamento</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>Abandono</t>
-        </is>
-      </c>
-      <c r="AH11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AK11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Sanitas</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Budista</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>Palenquero</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pensionado</t>
-        </is>
-      </c>
-      <c r="AP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AR11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>Anfibio</t>
-        </is>
-      </c>
-      <c r="AT11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>Moho</t>
-        </is>
-      </c>
-      <c r="AW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
